--- a/Расчет робота.xlsx
+++ b/Расчет робота.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="192">
   <si>
     <t>Радиус колеса, мм</t>
   </si>
@@ -541,9 +541,6 @@
     <t xml:space="preserve">лев драйвер EN  </t>
   </si>
   <si>
-    <t>серва</t>
-  </si>
-  <si>
     <t>HAND_SHOULDER_PIN</t>
   </si>
   <si>
@@ -598,10 +595,19 @@
     <t>TAIL_COCCYX_PIN</t>
   </si>
   <si>
-    <t>SDA</t>
-  </si>
-  <si>
-    <t>SCL</t>
+    <t>гироскоп SCL</t>
+  </si>
+  <si>
+    <t>гироскоп SDA</t>
+  </si>
+  <si>
+    <t>серва верхней камеры</t>
+  </si>
+  <si>
+    <t>серва передней камеры</t>
+  </si>
+  <si>
+    <t>переключатель камер</t>
   </si>
 </sst>
 </file>
@@ -1726,7 +1732,7 @@
   <dimension ref="A1:S60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2132,7 +2138,7 @@
         <v>123</v>
       </c>
       <c r="S11" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2168,7 +2174,7 @@
         <v>123</v>
       </c>
       <c r="S12" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2209,7 +2215,7 @@
     </row>
     <row r="15" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>137</v>
@@ -2224,7 +2230,7 @@
         <v>41</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G15" s="14"/>
       <c r="I15" s="20" t="s">
@@ -2237,7 +2243,7 @@
     </row>
     <row r="16" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>39</v>
@@ -2252,7 +2258,7 @@
         <v>43</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G16" s="14"/>
       <c r="I16" s="20" t="s">
@@ -2265,7 +2271,7 @@
     </row>
     <row r="17" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>137</v>
@@ -2280,7 +2286,7 @@
         <v>44</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G17" s="14"/>
       <c r="I17" s="20" t="s">
@@ -2293,7 +2299,7 @@
     </row>
     <row r="18" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>137</v>
@@ -2308,7 +2314,7 @@
         <v>137</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G18" s="12"/>
       <c r="I18" s="20" t="s">
@@ -2467,7 +2473,9 @@
       <c r="L26" s="13"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
+      <c r="A27" s="12" t="s">
+        <v>191</v>
+      </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7" t="s">
         <v>106</v>
@@ -2522,7 +2530,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>41</v>
@@ -2537,7 +2545,7 @@
         <v>44</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="7"/>
@@ -2552,7 +2560,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>43</v>
@@ -2567,7 +2575,7 @@
         <v>39</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G30" s="12"/>
       <c r="H30" s="7"/>
@@ -2582,7 +2590,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>42</v>
@@ -2597,7 +2605,7 @@
         <v>43</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G31" s="12"/>
       <c r="H31" s="7"/>
@@ -2623,7 +2631,7 @@
         <v>137</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="G32" s="12"/>
       <c r="H32" s="7"/>
@@ -2704,7 +2712,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7" t="s">
@@ -2832,10 +2840,10 @@
       <c r="G40" s="12"/>
       <c r="H40" s="7"/>
       <c r="I40" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K40" s="7"/>
       <c r="L40" s="13"/>
@@ -2857,7 +2865,7 @@
         <v>66</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K41" s="7"/>
       <c r="L41" s="13"/>

--- a/Расчет робота.xlsx
+++ b/Расчет робота.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="195">
   <si>
     <t>Радиус колеса, мм</t>
   </si>
@@ -608,6 +608,15 @@
   </si>
   <si>
     <t>переключатель камер</t>
+  </si>
+  <si>
+    <t>Ж</t>
+  </si>
+  <si>
+    <t>датчик цвета прав SDA</t>
+  </si>
+  <si>
+    <t>датчик цвета прав SCL</t>
   </si>
 </sst>
 </file>
@@ -1184,13 +1193,13 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.109375" style="1"/>
+    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1207,7 +1216,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1228,7 +1237,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1249,7 +1258,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1270,7 +1279,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1291,13 +1300,13 @@
         <v>0.40820000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1306,7 +1315,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1323,7 +1332,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1344,7 +1353,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1365,7 +1374,7 @@
         <v>58.79470847623714</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -1374,7 +1383,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1391,7 +1400,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1412,7 +1421,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1433,7 +1442,7 @@
         <v>1.4698677119059285</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -1442,7 +1451,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1459,7 +1468,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1480,7 +1489,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -1501,7 +1510,7 @@
         <v>110.24007839294464</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1518,7 +1527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1542,7 +1551,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1563,7 +1572,7 @@
         <v>5.85</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1598,15 +1607,15 @@
       <selection activeCell="D4" sqref="D1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="46.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>25</v>
       </c>
@@ -1614,7 +1623,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>25</v>
       </c>
@@ -1622,7 +1631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>25</v>
       </c>
@@ -1630,7 +1639,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>25</v>
       </c>
@@ -1638,7 +1647,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
@@ -1646,7 +1655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
@@ -1654,7 +1663,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>25</v>
       </c>
@@ -1662,7 +1671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>25</v>
       </c>
@@ -1670,22 +1679,22 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
@@ -1693,7 +1702,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>25</v>
       </c>
@@ -1701,7 +1710,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>25</v>
       </c>
@@ -1709,7 +1718,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>32</v>
       </c>
@@ -1717,7 +1726,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>31</v>
       </c>
@@ -1731,34 +1740,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" customWidth="1"/>
-    <col min="3" max="4" width="5.6640625" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" customWidth="1"/>
-    <col min="6" max="7" width="25.6640625" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" customWidth="1"/>
-    <col min="9" max="10" width="5.6640625" customWidth="1"/>
-    <col min="11" max="11" width="4.6640625" customWidth="1"/>
-    <col min="12" max="12" width="25.6640625" customWidth="1"/>
-    <col min="13" max="13" width="5.6640625" customWidth="1"/>
-    <col min="14" max="14" width="25.6640625" customWidth="1"/>
-    <col min="15" max="16" width="2.6640625" customWidth="1"/>
-    <col min="17" max="17" width="25.6640625" customWidth="1"/>
-    <col min="18" max="18" width="2.6640625" customWidth="1"/>
-    <col min="19" max="19" width="25.6640625" customWidth="1"/>
-    <col min="20" max="20" width="4.6640625" customWidth="1"/>
-    <col min="21" max="21" width="3.6640625" customWidth="1"/>
-    <col min="22" max="23" width="4.6640625" customWidth="1"/>
-    <col min="24" max="24" width="3.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" customWidth="1"/>
+    <col min="3" max="4" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" customWidth="1"/>
+    <col min="6" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" customWidth="1"/>
+    <col min="9" max="10" width="5.7109375" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" customWidth="1"/>
+    <col min="14" max="14" width="25.7109375" customWidth="1"/>
+    <col min="15" max="16" width="2.7109375" customWidth="1"/>
+    <col min="17" max="17" width="25.7109375" customWidth="1"/>
+    <col min="18" max="18" width="2.7109375" customWidth="1"/>
+    <col min="19" max="19" width="25.7109375" customWidth="1"/>
+    <col min="20" max="20" width="4.7109375" customWidth="1"/>
+    <col min="21" max="21" width="3.7109375" customWidth="1"/>
+    <col min="22" max="23" width="4.7109375" customWidth="1"/>
+    <col min="24" max="24" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="32" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="32" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="45" t="s">
         <v>129</v>
       </c>
@@ -1769,7 +1778,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>121</v>
       </c>
@@ -1825,7 +1834,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="C3" s="7" t="s">
         <v>118</v>
@@ -1857,7 +1866,7 @@
       </c>
       <c r="S3" s="33"/>
     </row>
-    <row r="4" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="C4" s="7" t="s">
         <v>106</v>
@@ -1887,7 +1896,7 @@
       </c>
       <c r="S4" s="13"/>
     </row>
-    <row r="5" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="C5" s="7" t="s">
         <v>108</v>
@@ -1917,7 +1926,7 @@
       </c>
       <c r="S5" s="13"/>
     </row>
-    <row r="6" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="C6" s="7" t="s">
         <v>110</v>
@@ -1947,7 +1956,7 @@
       </c>
       <c r="S6" s="13"/>
     </row>
-    <row r="7" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="C7" s="7" t="s">
         <v>112</v>
@@ -1977,7 +1986,7 @@
       </c>
       <c r="S7" s="13"/>
     </row>
-    <row r="8" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="C8" s="7" t="s">
         <v>114</v>
@@ -2007,7 +2016,7 @@
       </c>
       <c r="S8" s="13"/>
     </row>
-    <row r="9" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="C9" s="7" t="s">
         <v>116</v>
@@ -2051,7 +2060,7 @@
       </c>
       <c r="S9" s="13"/>
     </row>
-    <row r="10" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="C10" s="7" t="s">
         <v>68</v>
@@ -2095,7 +2104,7 @@
       </c>
       <c r="S10" s="13"/>
     </row>
-    <row r="11" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="C11" s="7" t="s">
         <v>70</v>
@@ -2141,7 +2150,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
       <c r="C12" s="7" t="s">
         <v>72</v>
@@ -2177,7 +2186,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="C13" s="7" t="s">
         <v>74</v>
@@ -2195,7 +2204,7 @@
       </c>
       <c r="L13" s="13"/>
     </row>
-    <row r="14" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="C14" s="7" t="s">
         <v>76</v>
@@ -2213,7 +2222,7 @@
       </c>
       <c r="L14" s="20"/>
     </row>
-    <row r="15" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>183</v>
       </c>
@@ -2241,7 +2250,7 @@
       </c>
       <c r="L15" s="20"/>
     </row>
-    <row r="16" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>180</v>
       </c>
@@ -2269,7 +2278,7 @@
       </c>
       <c r="L16" s="20"/>
     </row>
-    <row r="17" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>179</v>
       </c>
@@ -2297,7 +2306,7 @@
       </c>
       <c r="L17" s="20"/>
     </row>
-    <row r="18" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>184</v>
       </c>
@@ -2325,7 +2334,7 @@
       </c>
       <c r="L18" s="13"/>
     </row>
-    <row r="19" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="D19" s="19"/>
       <c r="F19" s="9"/>
@@ -2348,7 +2357,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="D20" s="19"/>
       <c r="F20" s="9"/>
@@ -2371,7 +2380,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -2393,13 +2402,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
     </row>
-    <row r="23" spans="1:17" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
     </row>
-    <row r="24" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>130</v>
       </c>
@@ -2412,7 +2421,7 @@
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="25" t="s">
         <v>121</v>
       </c>
@@ -2450,7 +2459,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7" t="s">
@@ -2472,10 +2481,8 @@
       <c r="K26" s="7"/>
       <c r="L26" s="13"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
-        <v>191</v>
-      </c>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7" t="s">
         <v>106</v>
@@ -2483,8 +2490,12 @@
       <c r="D27" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="9"/>
+      <c r="E27" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>191</v>
+      </c>
       <c r="G27" s="12"/>
       <c r="H27" s="7"/>
       <c r="I27" s="20" t="s">
@@ -2498,7 +2509,7 @@
       <c r="M27" s="7"/>
       <c r="Q27" s="7"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>161</v>
       </c>
@@ -2528,7 +2539,7 @@
       <c r="K28" s="7"/>
       <c r="L28" s="13"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>172</v>
       </c>
@@ -2558,7 +2569,7 @@
       <c r="K29" s="7"/>
       <c r="L29" s="13"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>170</v>
       </c>
@@ -2588,7 +2599,7 @@
       <c r="K30" s="7"/>
       <c r="L30" s="13"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>169</v>
       </c>
@@ -2618,7 +2629,7 @@
       <c r="K31" s="7"/>
       <c r="L31" s="13"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7" t="s">
@@ -2644,7 +2655,7 @@
       <c r="K32" s="7"/>
       <c r="L32" s="13"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7" t="s">
@@ -2666,7 +2677,7 @@
       <c r="K33" s="7"/>
       <c r="L33" s="13"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7" t="s">
@@ -2688,7 +2699,7 @@
       <c r="K34" s="7"/>
       <c r="L34" s="13"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7" t="s">
@@ -2710,7 +2721,7 @@
       <c r="K35" s="7"/>
       <c r="L35" s="13"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>187</v>
       </c>
@@ -2736,7 +2747,7 @@
       <c r="K36" s="7"/>
       <c r="L36" s="13"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7" t="s">
@@ -2766,7 +2777,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7" t="s">
@@ -2796,7 +2807,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7" t="s">
@@ -2826,7 +2837,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7" t="s">
@@ -2848,8 +2859,10 @@
       <c r="K40" s="7"/>
       <c r="L40" s="13"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="12"/>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>194</v>
+      </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7" t="s">
         <v>53</v>
@@ -2858,7 +2871,9 @@
         <v>52</v>
       </c>
       <c r="E41" s="7"/>
-      <c r="F41" s="9"/>
+      <c r="F41" s="9" t="s">
+        <v>193</v>
+      </c>
       <c r="G41" s="12"/>
       <c r="H41" s="7"/>
       <c r="I41" s="20" t="s">
@@ -2870,7 +2885,7 @@
       <c r="K41" s="7"/>
       <c r="L41" s="13"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -2896,7 +2911,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2922,7 +2937,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="15"/>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
@@ -2944,7 +2959,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="44" t="s">
         <v>140</v>
       </c>
@@ -2952,7 +2967,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="25" t="s">
         <v>121</v>
       </c>
@@ -2990,7 +3005,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="7"/>
       <c r="C48" s="13" t="s">
@@ -3022,7 +3037,7 @@
       </c>
       <c r="L48" s="13"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="B49" s="7"/>
       <c r="C49" s="13" t="s">
@@ -3052,7 +3067,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12"/>
       <c r="B50" s="7"/>
       <c r="C50" s="13" t="s">
@@ -3080,7 +3095,7 @@
       </c>
       <c r="L50" s="18"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="7"/>
       <c r="C51" s="13" t="s">
@@ -3093,7 +3108,7 @@
       <c r="F51" s="13"/>
       <c r="L51" s="10"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="12"/>
       <c r="B52" s="7"/>
       <c r="C52" s="13" t="s">
@@ -3105,7 +3120,7 @@
       <c r="E52" s="7"/>
       <c r="F52" s="13"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
       <c r="B53" s="7"/>
       <c r="C53" s="13" t="s">
@@ -3117,7 +3132,7 @@
       <c r="E53" s="7"/>
       <c r="F53" s="13"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
       <c r="B54" s="7"/>
       <c r="C54" s="13" t="s">
@@ -3129,7 +3144,7 @@
       <c r="E54" s="7"/>
       <c r="F54" s="13"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
       <c r="B55" s="7"/>
       <c r="C55" s="13" t="s">
@@ -3141,7 +3156,7 @@
       <c r="E55" s="7"/>
       <c r="F55" s="13"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
       <c r="B56" s="7"/>
       <c r="C56" s="13" t="s">
@@ -3153,7 +3168,7 @@
       <c r="E56" s="7"/>
       <c r="F56" s="13"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
       <c r="B57" s="7"/>
       <c r="C57" s="13" t="s">
@@ -3163,7 +3178,7 @@
       <c r="E57" s="7"/>
       <c r="F57" s="13"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>156</v>
       </c>
@@ -3177,7 +3192,7 @@
       <c r="E58" s="7"/>
       <c r="F58" s="13"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>157</v>
       </c>
@@ -3191,7 +3206,7 @@
       <c r="E59" s="7"/>
       <c r="F59" s="13"/>
     </row>
-    <row r="60" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="24" t="s">
         <v>158</v>
       </c>

--- a/Расчет робота.xlsx
+++ b/Расчет робота.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="196">
   <si>
     <t>Радиус колеса, мм</t>
   </si>
@@ -617,6 +617,9 @@
   </si>
   <si>
     <t>датчик цвета прав SCL</t>
+  </si>
+  <si>
+    <t>диоды датчиков цвета</t>
   </si>
 </sst>
 </file>
@@ -1741,7 +1744,7 @@
   <dimension ref="A1:S60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2944,7 +2947,9 @@
       <c r="D44" s="22"/>
       <c r="E44" s="16"/>
       <c r="F44" s="17"/>
-      <c r="G44" s="24"/>
+      <c r="G44" s="24" t="s">
+        <v>195</v>
+      </c>
       <c r="H44" s="16"/>
       <c r="I44" s="23" t="s">
         <v>38</v>

--- a/Расчет робота.xlsx
+++ b/Расчет робота.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="198">
   <si>
     <t>Радиус колеса, мм</t>
   </si>
@@ -619,7 +619,13 @@
     <t>датчик цвета прав SCL</t>
   </si>
   <si>
-    <t>диоды датчиков цвета</t>
+    <t>LED датчиков цвета</t>
+  </si>
+  <si>
+    <t>датчик цвета лев SDA</t>
+  </si>
+  <si>
+    <t>датчик цвета лев SCL</t>
   </si>
 </sst>
 </file>
@@ -1744,7 +1750,7 @@
   <dimension ref="A1:S60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2728,14 +2734,18 @@
       <c r="A36" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="B36" s="7"/>
+      <c r="B36" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="C36" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="7"/>
+      <c r="E36" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="F36" s="9" t="s">
         <v>188</v>
       </c>
@@ -2841,16 +2851,24 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="7"/>
+      <c r="A40" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="C40" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D40" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="9"/>
+      <c r="E40" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>196</v>
+      </c>
       <c r="G40" s="12"/>
       <c r="H40" s="7"/>
       <c r="I40" s="20" t="s">
@@ -2866,14 +2884,18 @@
       <c r="A41" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="B41" s="7"/>
+      <c r="B41" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="C41" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D41" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E41" s="7"/>
+      <c r="E41" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="F41" s="9" t="s">
         <v>193</v>
       </c>
@@ -2950,7 +2972,9 @@
       <c r="G44" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="H44" s="16"/>
+      <c r="H44" s="16" t="s">
+        <v>137</v>
+      </c>
       <c r="I44" s="23" t="s">
         <v>38</v>
       </c>

--- a/Расчет робота.xlsx
+++ b/Расчет робота.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="208">
   <si>
     <t>Радиус колеса, мм</t>
   </si>
@@ -626,6 +626,36 @@
   </si>
   <si>
     <t>датчик цвета лев SCL</t>
+  </si>
+  <si>
+    <t>РОЗ</t>
+  </si>
+  <si>
+    <t>СЕР</t>
+  </si>
+  <si>
+    <t>KeyPad R3</t>
+  </si>
+  <si>
+    <t>KeyPad R1</t>
+  </si>
+  <si>
+    <t>KeyPad C2</t>
+  </si>
+  <si>
+    <t>KeyPad C4</t>
+  </si>
+  <si>
+    <t>KeyPad R4</t>
+  </si>
+  <si>
+    <t>KeyPad R2</t>
+  </si>
+  <si>
+    <t>KeyPad C1</t>
+  </si>
+  <si>
+    <t>KeyPad C3</t>
   </si>
 </sst>
 </file>
@@ -1202,13 +1232,13 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.140625" style="1"/>
+    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1225,7 +1255,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1246,7 +1276,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1267,7 +1297,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1288,7 +1318,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1309,13 +1339,13 @@
         <v>0.40820000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1324,7 +1354,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1341,7 +1371,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1362,7 +1392,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1383,7 +1413,7 @@
         <v>58.79470847623714</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -1392,7 +1422,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1409,7 +1439,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1430,7 +1460,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1451,7 +1481,7 @@
         <v>1.4698677119059285</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -1460,7 +1490,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1477,7 +1507,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1498,7 +1528,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -1519,7 +1549,7 @@
         <v>110.24007839294464</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1536,7 +1566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1560,7 +1590,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1581,7 +1611,7 @@
         <v>5.85</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1616,15 +1646,15 @@
       <selection activeCell="D4" sqref="D1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>25</v>
       </c>
@@ -1632,7 +1662,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>25</v>
       </c>
@@ -1640,7 +1670,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>25</v>
       </c>
@@ -1648,7 +1678,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>25</v>
       </c>
@@ -1656,7 +1686,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
@@ -1664,7 +1694,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
@@ -1672,7 +1702,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>25</v>
       </c>
@@ -1680,7 +1710,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>25</v>
       </c>
@@ -1688,22 +1718,22 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
@@ -1711,7 +1741,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>25</v>
       </c>
@@ -1719,7 +1749,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>25</v>
       </c>
@@ -1727,7 +1757,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>32</v>
       </c>
@@ -1735,7 +1765,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>31</v>
       </c>
@@ -1749,34 +1779,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" customWidth="1"/>
-    <col min="3" max="4" width="5.7109375" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" customWidth="1"/>
-    <col min="6" max="7" width="25.7109375" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" customWidth="1"/>
-    <col min="9" max="10" width="5.7109375" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" customWidth="1"/>
-    <col min="12" max="12" width="25.7109375" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" customWidth="1"/>
-    <col min="14" max="14" width="25.7109375" customWidth="1"/>
-    <col min="15" max="16" width="2.7109375" customWidth="1"/>
-    <col min="17" max="17" width="25.7109375" customWidth="1"/>
-    <col min="18" max="18" width="2.7109375" customWidth="1"/>
-    <col min="19" max="19" width="25.7109375" customWidth="1"/>
-    <col min="20" max="20" width="4.7109375" customWidth="1"/>
-    <col min="21" max="21" width="3.7109375" customWidth="1"/>
-    <col min="22" max="23" width="4.7109375" customWidth="1"/>
-    <col min="24" max="24" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" customWidth="1"/>
+    <col min="3" max="4" width="5.6640625" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" customWidth="1"/>
+    <col min="6" max="7" width="25.6640625" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" customWidth="1"/>
+    <col min="9" max="10" width="5.6640625" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" customWidth="1"/>
+    <col min="14" max="14" width="25.6640625" customWidth="1"/>
+    <col min="15" max="16" width="2.6640625" customWidth="1"/>
+    <col min="17" max="17" width="25.6640625" customWidth="1"/>
+    <col min="18" max="18" width="2.6640625" customWidth="1"/>
+    <col min="19" max="19" width="25.6640625" customWidth="1"/>
+    <col min="20" max="20" width="4.6640625" customWidth="1"/>
+    <col min="21" max="21" width="3.6640625" customWidth="1"/>
+    <col min="22" max="23" width="4.6640625" customWidth="1"/>
+    <col min="24" max="24" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="32" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="32" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="45" t="s">
         <v>129</v>
       </c>
@@ -1787,7 +1817,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="25" t="s">
         <v>121</v>
       </c>
@@ -1843,7 +1873,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
       <c r="C3" s="7" t="s">
         <v>118</v>
@@ -1875,7 +1905,7 @@
       </c>
       <c r="S3" s="33"/>
     </row>
-    <row r="4" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="C4" s="7" t="s">
         <v>106</v>
@@ -1905,7 +1935,7 @@
       </c>
       <c r="S4" s="13"/>
     </row>
-    <row r="5" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12"/>
       <c r="C5" s="7" t="s">
         <v>108</v>
@@ -1935,7 +1965,7 @@
       </c>
       <c r="S5" s="13"/>
     </row>
-    <row r="6" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
       <c r="C6" s="7" t="s">
         <v>110</v>
@@ -1965,7 +1995,7 @@
       </c>
       <c r="S6" s="13"/>
     </row>
-    <row r="7" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
       <c r="C7" s="7" t="s">
         <v>112</v>
@@ -1995,7 +2025,7 @@
       </c>
       <c r="S7" s="13"/>
     </row>
-    <row r="8" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="C8" s="7" t="s">
         <v>114</v>
@@ -2025,7 +2055,7 @@
       </c>
       <c r="S8" s="13"/>
     </row>
-    <row r="9" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="C9" s="7" t="s">
         <v>116</v>
@@ -2069,7 +2099,7 @@
       </c>
       <c r="S9" s="13"/>
     </row>
-    <row r="10" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
       <c r="C10" s="7" t="s">
         <v>68</v>
@@ -2113,15 +2143,25 @@
       </c>
       <c r="S10" s="13"/>
     </row>
-    <row r="11" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+    <row r="11" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>199</v>
+      </c>
       <c r="C11" s="7" t="s">
         <v>70</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="E11" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>204</v>
+      </c>
       <c r="G11" s="12" t="s">
         <v>101</v>
       </c>
@@ -2159,15 +2199,25 @@
         <v>177</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
+    <row r="12" spans="1:19" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>199</v>
+      </c>
       <c r="C12" s="7" t="s">
         <v>72</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="E12" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>205</v>
+      </c>
       <c r="G12" s="12"/>
       <c r="I12" s="20" t="s">
         <v>57</v>
@@ -2195,15 +2245,25 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+    <row r="13" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>199</v>
+      </c>
       <c r="C13" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="E13" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>206</v>
+      </c>
       <c r="G13" s="12"/>
       <c r="I13" s="20" t="s">
         <v>59</v>
@@ -2213,15 +2273,25 @@
       </c>
       <c r="L13" s="13"/>
     </row>
-    <row r="14" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+    <row r="14" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>198</v>
+      </c>
       <c r="C14" s="7" t="s">
         <v>76</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="E14" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="G14" s="14"/>
       <c r="I14" s="20" t="s">
         <v>61</v>
@@ -2231,7 +2301,7 @@
       </c>
       <c r="L14" s="20"/>
     </row>
-    <row r="15" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>183</v>
       </c>
@@ -2259,7 +2329,7 @@
       </c>
       <c r="L15" s="20"/>
     </row>
-    <row r="16" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>180</v>
       </c>
@@ -2287,7 +2357,7 @@
       </c>
       <c r="L16" s="20"/>
     </row>
-    <row r="17" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>179</v>
       </c>
@@ -2315,7 +2385,7 @@
       </c>
       <c r="L17" s="20"/>
     </row>
-    <row r="18" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>184</v>
       </c>
@@ -2343,7 +2413,7 @@
       </c>
       <c r="L18" s="13"/>
     </row>
-    <row r="19" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="D19" s="19"/>
       <c r="F19" s="9"/>
@@ -2366,7 +2436,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="D20" s="19"/>
       <c r="F20" s="9"/>
@@ -2389,7 +2459,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -2411,13 +2481,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
     </row>
-    <row r="23" spans="1:17" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="15"/>
     </row>
-    <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>130</v>
       </c>
@@ -2430,7 +2500,7 @@
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="25" t="s">
         <v>121</v>
       </c>
@@ -2468,7 +2538,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="12"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7" t="s">
@@ -2490,7 +2560,7 @@
       <c r="K26" s="7"/>
       <c r="L26" s="13"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="12"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7" t="s">
@@ -2518,7 +2588,7 @@
       <c r="M27" s="7"/>
       <c r="Q27" s="7"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>161</v>
       </c>
@@ -2548,7 +2618,7 @@
       <c r="K28" s="7"/>
       <c r="L28" s="13"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>172</v>
       </c>
@@ -2578,7 +2648,7 @@
       <c r="K29" s="7"/>
       <c r="L29" s="13"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>170</v>
       </c>
@@ -2608,7 +2678,7 @@
       <c r="K30" s="7"/>
       <c r="L30" s="13"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>169</v>
       </c>
@@ -2638,7 +2708,7 @@
       <c r="K31" s="7"/>
       <c r="L31" s="13"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="12"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7" t="s">
@@ -2664,7 +2734,7 @@
       <c r="K32" s="7"/>
       <c r="L32" s="13"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="12"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7" t="s">
@@ -2686,7 +2756,7 @@
       <c r="K33" s="7"/>
       <c r="L33" s="13"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="12"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7" t="s">
@@ -2708,7 +2778,7 @@
       <c r="K34" s="7"/>
       <c r="L34" s="13"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="12"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7" t="s">
@@ -2730,7 +2800,7 @@
       <c r="K35" s="7"/>
       <c r="L35" s="13"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>187</v>
       </c>
@@ -2760,7 +2830,7 @@
       <c r="K36" s="7"/>
       <c r="L36" s="13"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="12"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7" t="s">
@@ -2790,7 +2860,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="12"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7" t="s">
@@ -2820,7 +2890,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="12"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7" t="s">
@@ -2850,7 +2920,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>197</v>
       </c>
@@ -2880,7 +2950,7 @@
       <c r="K40" s="7"/>
       <c r="L40" s="13"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>194</v>
       </c>
@@ -2910,7 +2980,7 @@
       <c r="K41" s="7"/>
       <c r="L41" s="13"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="12"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -2936,7 +3006,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2962,7 +3032,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="15"/>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
@@ -2988,7 +3058,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="44" t="s">
         <v>140</v>
       </c>
@@ -2996,7 +3066,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="25" t="s">
         <v>121</v>
       </c>
@@ -3034,7 +3104,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="12"/>
       <c r="B48" s="7"/>
       <c r="C48" s="13" t="s">
@@ -3066,7 +3136,7 @@
       </c>
       <c r="L48" s="13"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="12"/>
       <c r="B49" s="7"/>
       <c r="C49" s="13" t="s">
@@ -3096,7 +3166,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="12"/>
       <c r="B50" s="7"/>
       <c r="C50" s="13" t="s">
@@ -3124,7 +3194,7 @@
       </c>
       <c r="L50" s="18"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="12"/>
       <c r="B51" s="7"/>
       <c r="C51" s="13" t="s">
@@ -3137,7 +3207,7 @@
       <c r="F51" s="13"/>
       <c r="L51" s="10"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="12"/>
       <c r="B52" s="7"/>
       <c r="C52" s="13" t="s">
@@ -3149,7 +3219,7 @@
       <c r="E52" s="7"/>
       <c r="F52" s="13"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="12"/>
       <c r="B53" s="7"/>
       <c r="C53" s="13" t="s">
@@ -3161,7 +3231,7 @@
       <c r="E53" s="7"/>
       <c r="F53" s="13"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="12"/>
       <c r="B54" s="7"/>
       <c r="C54" s="13" t="s">
@@ -3173,7 +3243,7 @@
       <c r="E54" s="7"/>
       <c r="F54" s="13"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="12"/>
       <c r="B55" s="7"/>
       <c r="C55" s="13" t="s">
@@ -3185,7 +3255,7 @@
       <c r="E55" s="7"/>
       <c r="F55" s="13"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="12"/>
       <c r="B56" s="7"/>
       <c r="C56" s="13" t="s">
@@ -3197,7 +3267,7 @@
       <c r="E56" s="7"/>
       <c r="F56" s="13"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="12"/>
       <c r="B57" s="7"/>
       <c r="C57" s="13" t="s">
@@ -3207,7 +3277,7 @@
       <c r="E57" s="7"/>
       <c r="F57" s="13"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
         <v>156</v>
       </c>
@@ -3221,7 +3291,7 @@
       <c r="E58" s="7"/>
       <c r="F58" s="13"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
         <v>157</v>
       </c>
@@ -3235,7 +3305,7 @@
       <c r="E59" s="7"/>
       <c r="F59" s="13"/>
     </row>
-    <row r="60" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="24" t="s">
         <v>158</v>
       </c>

--- a/Расчет робота.xlsx
+++ b/Расчет робота.xlsx
@@ -535,12 +535,6 @@
     <t>лев драйвер INA</t>
   </si>
   <si>
-    <t>прав драйвер EN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">лев драйвер EN  </t>
-  </si>
-  <si>
     <t>HAND_SHOULDER_PIN</t>
   </si>
   <si>
@@ -656,6 +650,12 @@
   </si>
   <si>
     <t>KeyPad C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">прав драйвер EN  </t>
+  </si>
+  <si>
+    <t>лев драйвер EN</t>
   </si>
 </sst>
 </file>
@@ -1779,8 +1779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2145,10 +2145,10 @@
     </row>
     <row r="11" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>70</v>
@@ -2157,10 +2157,10 @@
         <v>69</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>101</v>
@@ -2196,15 +2196,15 @@
         <v>123</v>
       </c>
       <c r="S11" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>72</v>
@@ -2213,10 +2213,10 @@
         <v>71</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G12" s="12"/>
       <c r="I12" s="20" t="s">
@@ -2242,15 +2242,15 @@
         <v>123</v>
       </c>
       <c r="S12" s="18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>74</v>
@@ -2259,10 +2259,10 @@
         <v>73</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G13" s="12"/>
       <c r="I13" s="20" t="s">
@@ -2275,10 +2275,10 @@
     </row>
     <row r="14" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>76</v>
@@ -2287,10 +2287,10 @@
         <v>75</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G14" s="14"/>
       <c r="I14" s="20" t="s">
@@ -2303,7 +2303,7 @@
     </row>
     <row r="15" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>137</v>
@@ -2318,7 +2318,7 @@
         <v>41</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G15" s="14"/>
       <c r="I15" s="20" t="s">
@@ -2331,7 +2331,7 @@
     </row>
     <row r="16" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>39</v>
@@ -2346,7 +2346,7 @@
         <v>43</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G16" s="14"/>
       <c r="I16" s="20" t="s">
@@ -2359,7 +2359,7 @@
     </row>
     <row r="17" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>137</v>
@@ -2374,7 +2374,7 @@
         <v>44</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G17" s="14"/>
       <c r="I17" s="20" t="s">
@@ -2387,7 +2387,7 @@
     </row>
     <row r="18" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>137</v>
@@ -2402,7 +2402,7 @@
         <v>137</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G18" s="12"/>
       <c r="I18" s="20" t="s">
@@ -2570,10 +2570,10 @@
         <v>105</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="7"/>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>43</v>
@@ -2605,7 +2605,7 @@
         <v>43</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="7"/>
@@ -2620,7 +2620,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>41</v>
@@ -2635,7 +2635,7 @@
         <v>44</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="7"/>
@@ -2650,7 +2650,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>43</v>
@@ -2665,7 +2665,7 @@
         <v>39</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G30" s="12"/>
       <c r="H30" s="7"/>
@@ -2680,7 +2680,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>42</v>
@@ -2695,7 +2695,7 @@
         <v>43</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G31" s="12"/>
       <c r="H31" s="7"/>
@@ -2721,7 +2721,7 @@
         <v>137</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G32" s="12"/>
       <c r="H32" s="7"/>
@@ -2802,7 +2802,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>43</v>
@@ -2817,7 +2817,7 @@
         <v>42</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G36" s="12"/>
       <c r="H36" s="7"/>
@@ -2842,7 +2842,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="9"/>
       <c r="G37" s="12" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="H37" s="49" t="s">
         <v>44</v>
@@ -2857,7 +2857,7 @@
         <v>44</v>
       </c>
       <c r="L37" s="13" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -2872,7 +2872,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="9"/>
       <c r="G38" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>42</v>
@@ -2887,7 +2887,7 @@
         <v>42</v>
       </c>
       <c r="L38" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -2902,7 +2902,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="9"/>
       <c r="G39" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>137</v>
@@ -2917,12 +2917,12 @@
         <v>137</v>
       </c>
       <c r="L39" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>41</v>
@@ -2937,22 +2937,22 @@
         <v>39</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G40" s="12"/>
       <c r="H40" s="7"/>
       <c r="I40" s="20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K40" s="7"/>
       <c r="L40" s="13"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>43</v>
@@ -2967,7 +2967,7 @@
         <v>42</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G41" s="12"/>
       <c r="H41" s="7"/>
@@ -2975,7 +2975,7 @@
         <v>66</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K41" s="7"/>
       <c r="L41" s="13"/>
@@ -3040,7 +3040,7 @@
       <c r="E44" s="16"/>
       <c r="F44" s="17"/>
       <c r="G44" s="24" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H44" s="16" t="s">
         <v>137</v>
